--- a/KẾ-HOẠCH-CHI-TIẾT.xlsx
+++ b/KẾ-HOẠCH-CHI-TIẾT.xlsx
@@ -9,17 +9,17 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>KẾ HOẠCH &amp; PHÂN CÔNG LÀM ĐỒ ÁN MÔN CẤU TRÚC DỮ LIỆU VÀ GIẢI THUẬT</t>
   </si>
   <si>
-    <t xml:space="preserve">Đề tài: Demo các phương thức cây nhị phân
+    <t xml:space="preserve">Đề tài: Sử dụng phương pháp cây nhị phân thiết kế từ điển Anh-Việt
 </t>
   </si>
   <si>
@@ -29,10 +29,7 @@
     <t>Phân công</t>
   </si>
   <si>
-    <t>Thời gian thực hiện (dự tính)</t>
-  </si>
-  <si>
-    <t>Thời gian thực hiện (thực tế)</t>
+    <t xml:space="preserve">Thời gian thực hiện </t>
   </si>
   <si>
     <t>Lê Hồng Danh</t>
@@ -53,34 +50,97 @@
     <t>X</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Tuần 4</t>
-  </si>
-  <si>
-    <t>Tuần 5</t>
-  </si>
-  <si>
-    <t>Viết code</t>
-  </si>
-  <si>
-    <t>tuần 6</t>
-  </si>
-  <si>
-    <t>Tuần 8</t>
-  </si>
-  <si>
-    <t>Tìm hiểu winform</t>
-  </si>
-  <si>
-    <t>Tuần 9</t>
-  </si>
-  <si>
-    <t>Viết winform</t>
-  </si>
-  <si>
-    <t>Tuần 10</t>
+    <t>21/09/2018</t>
+  </si>
+  <si>
+    <t> Khai báo cấu trúc của 1 nút</t>
+  </si>
+  <si>
+    <t>14/09/2018</t>
+  </si>
+  <si>
+    <t>Khởi tạo cây</t>
+  </si>
+  <si>
+    <t>22/09/2018</t>
+  </si>
+  <si>
+    <t>29/09/2018</t>
+  </si>
+  <si>
+    <t> Kiểm tra cây rỗng</t>
+  </si>
+  <si>
+    <t>Tạo 1 nút cho cây</t>
+  </si>
+  <si>
+    <t> Chèn 1 nút vào cây có sẵn</t>
+  </si>
+  <si>
+    <t>Tìm kiếm </t>
+  </si>
+  <si>
+    <t>Hàm hủy 1 nút của cây</t>
+  </si>
+  <si>
+    <t>Hàm nhập dữ liệu vào cây</t>
+  </si>
+  <si>
+    <t>Duyệt cây</t>
+  </si>
+  <si>
+    <t>Hàm hủy cây</t>
+  </si>
+  <si>
+    <t>Tạo cơ sỡ dữ liệu</t>
+  </si>
+  <si>
+    <t>sắp xếp dữ liệu</t>
+  </si>
+  <si>
+    <t>tối ưu hóa dữ liệu</t>
+  </si>
+  <si>
+    <t>kiến trúc chương trình</t>
+  </si>
+  <si>
+    <t>Nạp dữ liệu vào form các mảng</t>
+  </si>
+  <si>
+    <t>Tìm kiếm dữ liệu</t>
+  </si>
+  <si>
+    <t>Chức năng thêm từ và update  sau khi thêm từ</t>
+  </si>
+  <si>
+    <t>Chức năng xóa và update  sau khi xóa từ</t>
+  </si>
+  <si>
+    <t>Giao diện chính</t>
+  </si>
+  <si>
+    <t>13/10/2018</t>
+  </si>
+  <si>
+    <t>31/10/2018</t>
+  </si>
+  <si>
+    <t>Giao diện thêm từ</t>
+  </si>
+  <si>
+    <t>Giao diện văn bản</t>
+  </si>
+  <si>
+    <t>Giao diện lưu từ trong word store</t>
+  </si>
+  <si>
+    <t>Giao diện About Us</t>
+  </si>
+  <si>
+    <t>Các background để người dùng lựa chọn</t>
+  </si>
+  <si>
+    <t>Thử nghiệm</t>
   </si>
 </sst>
 </file>
@@ -88,12 +148,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,17 +162,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,36 +198,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,6 +211,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -170,42 +271,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,44 +319,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,18 +342,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -294,61 +480,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,104 +526,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -541,15 +613,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -585,32 +648,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,6 +657,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,11 +702,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,170 +724,178 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -854,38 +906,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1207,24 +1291,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="46" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.1428571428571" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.5714285714286" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.4285714285714" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="17" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.4285714285714" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.752380952381" style="3" customWidth="1"/>
+    <col min="6" max="6" width="0.0952380952380952" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1234,10 +1318,8 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:9">
+    </row>
+    <row r="2" ht="15.75" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1247,8 +1329,6 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
     </row>
     <row r="3" ht="15.75" spans="1:7">
       <c r="A3" s="6" t="s">
@@ -1262,102 +1342,479 @@
         <v>4</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" ht="15.75" spans="1:7">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
       <c r="B5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="19">
+        <v>43382</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="B6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="B7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="3" t="s">
+      <c r="E7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="B8" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="B9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="B10" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="B11" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="21" t="s">
         <v>21</v>
       </c>
-    </row>
+      <c r="B12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="26">
+        <v>43110</v>
+      </c>
+      <c r="E16" s="26">
+        <v>43261</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="26">
+        <v>43110</v>
+      </c>
+      <c r="E17" s="26">
+        <v>43261</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="26">
+        <v>43110</v>
+      </c>
+      <c r="E18" s="26">
+        <v>43261</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="26">
+        <v>43110</v>
+      </c>
+      <c r="E19" s="26">
+        <v>43261</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="26">
+        <v>43110</v>
+      </c>
+      <c r="E20" s="26">
+        <v>43261</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="26">
+        <v>43322</v>
+      </c>
+      <c r="E21" s="26">
+        <v>43414</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="26">
+        <v>43322</v>
+      </c>
+      <c r="E22" s="26">
+        <v>43414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="26">
+        <v>43322</v>
+      </c>
+      <c r="E23" s="26">
+        <v>43414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" ht="17" customHeight="1"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
